--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-012 - Admin WEM mengajukan data Non Sales.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-012 - Admin WEM mengajukan data Non Sales.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17222F7-BBE6-4564-AB7C-F6CD92B59FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840423AF-769A-4DE0-90D2-8E10B45985B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0289" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,9 +112,6 @@
     <t>Admin WEM</t>
   </si>
   <si>
-    <t>DGS-304</t>
-  </si>
-  <si>
     <t>Admin WEM mengajukan data Non Sales</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>cuti melahirkan</t>
+  </si>
+  <si>
+    <t>SCD0018-012</t>
   </si>
 </sst>
 </file>
@@ -240,9 +240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -250,6 +247,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,13 +561,13 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -644,19 +644,19 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>37679</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -670,25 +670,25 @@
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>24068</v>
       </c>
       <c r="M2" s="15" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-09-02</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N2" s="15" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
-        <v>2022-10-02</v>
+        <v>2022-12-10</v>
       </c>
       <c r="O2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -697,11 +697,11 @@
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>20</v>
@@ -709,7 +709,7 @@
       <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>24068</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -723,15 +723,15 @@
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>24068</v>
       </c>
       <c r="M3" s="12">
         <v>2022</v>
       </c>
       <c r="N3" s="12"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
